--- a/similarities/split_global/harmonic_similarity_timestamps_280.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_280.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,718 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:41.760000', '0:00:45.160000'), ('0:01:04.680000', '0:01:10.020000')]</t>
+          <t>('0:00:44.300045', '0:00:57.976598')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:38.620000', '0:01:52.500000'), ('0:01:48.500000', '0:02:05.020000')]</t>
+          <t>('0:01:45', '0:01:48.840000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=41.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=64.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=44.300045</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=98.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=108.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:07.380000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
+          <t>('0:00:03.599751', '0:00:06.705328')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=1.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=8.18']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:46.220000', '0:00:48.940000')]</t>
+          <t>('0:02:03.030000', '0:02:09.120000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.680000', '0:00:07.500000')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=1.68']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['G/5', 'C/9', 'G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:42.520000', '0:00:50.160000')]</t>
+          <t>('0:00:00.727609', '0:00:08.204625')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:27.360000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:18.870000', '0:00:25.690000')]</t>
+          <t>('0:00:42.520000', '0:00:46.360000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:08.080000', '0:01:20.280000')]</t>
+          <t>('0:00:13.720000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:07.380000')]</t>
+          <t>('0:00:23.040000', '0:00:28.920000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:46.220000', '0:00:48.940000')]</t>
+          <t>('0:00:09.780000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=1.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.22']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_206</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+          <t>('0:00:07.900000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-206#t=22.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=58.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:08.700000', '0:00:18.300000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:39.724104', '0:00:47.769818')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_135</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:34.060000', '0:01:53.500000')]</t>
+          <t>('0:01:00.820000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:01.880000', '0:01:07.800000')]</t>
+          <t>('0:00:30.160000', '0:00:44.080000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=94.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=60.82</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-135#t=30.16</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min'], ['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj']]</t>
+          <t>['A', 'A:7/3', 'D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:10.820000', '0:00:22.920000'), ('0:00:09.400000', '0:00:20.180000')]</t>
+          <t>('0:00:01.640000', '0:00:05.110000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:08.220000'), ('0:00:00.660000', '0:00:06.480000')]</t>
+          <t>('0:00:14.541510', '0:00:23.411533')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=9.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=14.54151</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_203</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'D/b7']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G/3', 'G:maj']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:55.397573', '0:01:00.285374')]</t>
+          <t>('0:00:32.920657', '0:00:39.410634')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:40.171000', '0:00:43.498000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-203#t=55.397573']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=40.171']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5', 'D']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:20.432000', '0:00:26.250000')]</t>
+          <t>('0:04:03.440000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:08.110136')]</t>
+          <t>('0:00:00.800000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'G/5', 'D']]</t>
+          <t>['A:7/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:53.520000', '0:01:01.460000')]</t>
+          <t>('0:00:05.360000', '0:00:11.380000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:18.434000', '0:00:23.353000')]</t>
+          <t>('0:00:18.954550', '0:00:24.340331')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=53.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=5.36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=18.434']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=18.95455</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:07.720000')]</t>
+          <t>('0:00:00.480000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:14.920000', '0:00:20.760000')]</t>
+          <t>('0:01:17.720000', '0:01:35.680000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['A#:min', 'D#:min', 'A#:min/F']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:35.140000', '0:00:42.320000')]</t>
+          <t>('0:01:30.780000', '0:01:41.320000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:36.260000', '0:01:47.180000')]</t>
+          <t>('0:00:08.400000', '0:00:12.140000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=35.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=90.78</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=96.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=8.4</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
